--- a/static/istanbul_transfer.xlsx
+++ b/static/istanbul_transfer.xlsx
@@ -1,37 +1,207 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GMD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA1757F-D84B-4890-90A9-DFD473A43AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3645" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="53">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Price_Sedan</t>
+  </si>
+  <si>
+    <t>Price_Vito</t>
+  </si>
+  <si>
+    <t>Price_VitoVIP</t>
+  </si>
+  <si>
+    <t>Price_Sprinter</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Comp_Price</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sabiha Gökçen Havalimanı (SAW)</t>
+  </si>
+  <si>
+    <t>Sultanahmet (Fatih)</t>
+  </si>
+  <si>
+    <t>Taksim (Beyoğlu)</t>
+  </si>
+  <si>
+    <t>İstanbul Havalimanı (IST)</t>
+  </si>
+  <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
+    <t>Kadıköy</t>
+  </si>
+  <si>
+    <t>Şişli</t>
+  </si>
+  <si>
+    <t>Üsküdar</t>
+  </si>
+  <si>
+    <t>Adalar</t>
+  </si>
+  <si>
+    <t>Arnavutköy</t>
+  </si>
+  <si>
+    <t>Ataşehir</t>
+  </si>
+  <si>
+    <t>Avcılar</t>
+  </si>
+  <si>
+    <t>Bağcılar</t>
+  </si>
+  <si>
+    <t>Bahçelievler</t>
+  </si>
+  <si>
+    <t>Bakırköy</t>
+  </si>
+  <si>
+    <t>Başakşehir</t>
+  </si>
+  <si>
+    <t>Bayrampaşa</t>
+  </si>
+  <si>
+    <t>Beykoz</t>
+  </si>
+  <si>
+    <t>Beylikdüzü</t>
+  </si>
+  <si>
+    <t>Büyükçekmece</t>
+  </si>
+  <si>
+    <t>Çatalca</t>
+  </si>
+  <si>
+    <t>Çekmeköy</t>
+  </si>
+  <si>
+    <t>Esenler</t>
+  </si>
+  <si>
+    <t>Esenyurt</t>
+  </si>
+  <si>
+    <t>Eyüpsultan</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Gaziosmanpaşa</t>
+  </si>
+  <si>
+    <t>Güngören</t>
+  </si>
+  <si>
+    <t>Kağıthane</t>
+  </si>
+  <si>
+    <t>Kartal</t>
+  </si>
+  <si>
+    <t>Küçükçekmece</t>
+  </si>
+  <si>
+    <t>Maltepe</t>
+  </si>
+  <si>
+    <t>Pendik</t>
+  </si>
+  <si>
+    <t>Sancaktepe</t>
+  </si>
+  <si>
+    <t>Sarıyer</t>
+  </si>
+  <si>
+    <t>Silivri</t>
+  </si>
+  <si>
+    <t>Sultanbeyli</t>
+  </si>
+  <si>
+    <t>Sultangazi</t>
+  </si>
+  <si>
+    <t>Şile</t>
+  </si>
+  <si>
+    <t>Tuzla</t>
+  </si>
+  <si>
+    <t>Ümraniye</t>
+  </si>
+  <si>
+    <t>Zeytinburnu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +216,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,97 +540,2431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Destination</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Price_Sedan</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Price_Vito</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Price_VitoVIP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Price_Sprinter</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sabiha Gökçen Havalimanı (SAW)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sultanahmet (Fatih)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1824</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2375</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sabiha Gökçen Havalimanı (SAW)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Taksim (Beyoğlu)</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1830</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2287</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3568</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>111</v>
+      </c>
+      <c r="E58">
+        <v>11111</v>
+      </c>
+      <c r="F58">
+        <v>1111</v>
+      </c>
+      <c r="G58">
+        <v>11111</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/static/istanbul_transfer.xlsx
+++ b/static/istanbul_transfer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,19 +496,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İstanbul Havalimanı (IST)</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sabiha Gökçen Havalimanı (SAW)</t>
+          <t>Kadıköy</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -524,6 +524,82 @@
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>İstanbul Havalimanı (IST)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sabiha Gökçen Havalimanı (SAW)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>İstanbul Havalimanı (IST)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sultanahmet, Fatih</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2077</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2290</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2885</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2127</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Rakipten 50 TL ucuz (istanbulshuttleport.com)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
